--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168734.250288098</v>
+        <v>1165538.56372408</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079715</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.9127706104848</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>64.89418287192187</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>57.17380082342405</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.1589972036696</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>286.6488411650028</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>159.7269632351983</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>63.91879806533829</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>160.7459105914165</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>3.13954148002296</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>312.7974431297824</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>63.02341241305043</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>22.28782598961602</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>344.9014115296855</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1666,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>10.04027365720342</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3717,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>12.11553319608921</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608921</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>407.2684576718993</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.5213804116893</v>
+        <v>1674.602188492497</v>
       </c>
       <c r="C2" t="n">
-        <v>832.4193116355167</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503653</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
         <v>770.8155900490646</v>
@@ -4336,16 +4336,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>2005.983069159478</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1586.840605738788</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1178.554482038442</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7523231022661</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4527,13 +4527,13 @@
         <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1620.382367173733</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1374.990612507145</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1147.570941821253</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2480.040423909638</v>
+        <v>832.8334410837864</v>
       </c>
       <c r="C5" t="n">
-        <v>2041.897951093061</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.988166267505</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4570,25 +4570,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1667.419135269041</v>
       </c>
       <c r="Y5" t="n">
-        <v>2649.897996842637</v>
+        <v>1259.133011568694</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>867.0923738769416</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>694.5306623601665</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>528.6526695616892</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>358.8946658124264</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4761,16 +4761,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1803.748822362116</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1531.722417948408</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1286.330663281821</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1058.910992595929</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276922</v>
+        <v>1114.066895752005</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4819,37 +4819,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.81718876183</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>394.9608689238808</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>56.57247054885377</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>56.57247054885377</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2408.082100998617</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C11" t="n">
-        <v>1969.93962818204</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.029843356485</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1100.25509851478</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
         <v>784.2980852523735</v>
@@ -5041,19 +5041,19 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>2438.435044982809</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="M11" t="n">
-        <v>2438.435044982809</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N11" t="n">
-        <v>2438.435044982809</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
         <v>3144.542240397637</v>
@@ -5068,25 +5068,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259701</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193527</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.810258604561</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.667795183871</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y11" t="n">
-        <v>2834.381671483525</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885368</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002202</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2466.979950121666</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.83747730509</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1592.927692479534</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>1159.152947637829</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>731.2855180470369</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
         <v>382.9002538756374</v>
@@ -5284,13 +5284,13 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
         <v>3313.696305150693</v>
@@ -5314,16 +5314,16 @@
         <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>4125.563562316576</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3720.70810772761</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3301.565644306921</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2893.279520606574</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154828</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="H16" t="n">
         <v>182.4300485441784</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002202</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5503,46 +5503,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5791,13 +5791,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2443.348304557486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O29" t="n">
+        <v>4552.836435941488</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4566.543227580387</v>
+      </c>
+      <c r="Q29" t="n">
         <v>5113.042013538981</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5113.04201353898</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6949,13 +6949,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4552.836435941488</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937674</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
         <v>780.1951658309357</v>
@@ -7332,52 +7332,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354733</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066089</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745699</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127546</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885368</v>
@@ -7414,25 +7414,25 @@
         <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1089.302607574471</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
@@ -7493,22 +7493,22 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
         <v>1639.837082703323</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154828</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>664.63055186622</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279762</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885368</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2283.891072803477</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002202</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
@@ -7654,22 +7654,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
@@ -7690,10 +7690,10 @@
         <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>2946.70887718477</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>418.328424285066</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
         <v>1757.009860797663</v>
@@ -7984,19 +7984,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8239,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>226.6534083847602</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>17.17305800913124</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>713.2395913281089</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,7 +10120,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>973.8822356326336</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>565.9371927299995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>35.39394564341939</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761422</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>806.0025231116376</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110.7913121651019</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>193.6066672431028</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>411.4732220987949</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>52.48244153328324</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>160.7958207444039</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>411.4732220987951</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>411.4732220987951</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>7.682581114583115</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581286.3523228305</v>
+        <v>581286.3523228304</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619859.9620902177</v>
+        <v>619859.9620902176</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581286.3523228306</v>
+        <v>581286.3523228305</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287655</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287653</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>348495.7579287655</v>
-      </c>
-      <c r="D2" t="n">
-        <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
         <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>321146.4561425571</v>
+        <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
         <v>342457.4296892791</v>
       </c>
       <c r="I2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="J2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="L2" t="n">
+        <v>342457.429689279</v>
+      </c>
+      <c r="M2" t="n">
         <v>342457.4296892791</v>
       </c>
-      <c r="M2" t="n">
-        <v>342457.429689279</v>
-      </c>
       <c r="N2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="O2" t="n">
         <v>321146.456142557</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137046.3027641834</v>
+        <v>137041.5797735902</v>
       </c>
       <c r="C4" t="n">
-        <v>137046.3027641834</v>
+        <v>137041.5797735903</v>
       </c>
       <c r="D4" t="n">
-        <v>137046.3027641833</v>
+        <v>137041.5797735903</v>
       </c>
       <c r="E4" t="n">
-        <v>35149.06164845906</v>
+        <v>35142.1617211001</v>
       </c>
       <c r="F4" t="n">
-        <v>35149.06164845906</v>
+        <v>35142.16172110009</v>
       </c>
       <c r="G4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="H4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665553</v>
       </c>
       <c r="I4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="J4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="K4" t="n">
-        <v>37481.51996663492</v>
+        <v>37474.16216665551</v>
       </c>
       <c r="L4" t="n">
-        <v>37481.51996663494</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="M4" t="n">
-        <v>37481.51996663494</v>
+        <v>37474.16216665552</v>
       </c>
       <c r="N4" t="n">
-        <v>37481.51996663493</v>
+        <v>37474.16216665553</v>
       </c>
       <c r="O4" t="n">
-        <v>35149.06164845906</v>
+        <v>35142.16172110009</v>
       </c>
       <c r="P4" t="n">
-        <v>35149.06164845906</v>
+        <v>35142.16172110009</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86462.76798122062</v>
+        <v>-86458.04499062728</v>
       </c>
       <c r="C6" t="n">
-        <v>137236.9306028244</v>
+        <v>137241.6535934174</v>
       </c>
       <c r="D6" t="n">
-        <v>137236.9306028244</v>
+        <v>137241.6535934175</v>
       </c>
       <c r="E6" t="n">
-        <v>64066.36544002127</v>
+        <v>63021.36914483373</v>
       </c>
       <c r="F6" t="n">
-        <v>214732.1190117692</v>
+        <v>213687.1227165817</v>
       </c>
       <c r="G6" t="n">
-        <v>198167.8619442437</v>
+        <v>197942.9763503968</v>
       </c>
       <c r="H6" t="n">
-        <v>227257.6711168516</v>
+        <v>227032.7855230046</v>
       </c>
       <c r="I6" t="n">
-        <v>227257.6711168516</v>
+        <v>227032.7855230045</v>
       </c>
       <c r="J6" t="n">
-        <v>52606.32239914549</v>
+        <v>52381.43680529841</v>
       </c>
       <c r="K6" t="n">
-        <v>227257.6711168516</v>
+        <v>227032.7855230045</v>
       </c>
       <c r="L6" t="n">
-        <v>227257.6711168516</v>
+        <v>227032.7855230045</v>
       </c>
       <c r="M6" t="n">
-        <v>101506.5827811608</v>
+        <v>101281.6971873138</v>
       </c>
       <c r="N6" t="n">
-        <v>227257.6711168516</v>
+        <v>227032.7855230045</v>
       </c>
       <c r="O6" t="n">
-        <v>214732.1190117692</v>
+        <v>213687.1227165817</v>
       </c>
       <c r="P6" t="n">
-        <v>214732.1190117693</v>
+        <v>213687.1227165817</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.1238041695739</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>339.3090795914212</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>212.1323395461473</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>253.8775775763891</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>147.1122069234082</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>369.8422500230726</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>268.6910868018713</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>84.63380825304846</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -34959,7 +34959,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>226.6534083847602</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>17.17305800913124</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>713.2395913281089</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36360,19 +36360,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36849,13 +36849,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-6.786426882829224e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,16 +37317,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>395.0015281256929</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>973.8822356326336</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908451</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>565.9371927299995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>35.39394564341939</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761422</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>806.0025231116376</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
